--- a/manuscript/v2.0/Table4_IntrogressedSNPs.xlsx
+++ b/manuscript/v2.0/Table4_IntrogressedSNPs.xlsx
@@ -124,7 +124,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Table SNPs: Number of shared, derived nuclear SNPs between </t>
+      <t xml:space="preserve">Table 4: Number of shared, derived nuclear SNPs between </t>
     </r>
     <r>
       <rPr>
@@ -266,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -278,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,7 +566,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +592,7 @@
       <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
